--- a/flatten_data.xlsx
+++ b/flatten_data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghost/src/github/jupyterlab/JsonSchema-ElasticSchema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E89ED71-CFBC-4543-9BAC-80B8D751CED5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6249693A-6FD2-824C-AF8A-E92764809C7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
   <sheets>
     <sheet name="flatten_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="89">
   <si>
     <t>RESIDENT 1</t>
   </si>
@@ -128,13 +129,172 @@
   </si>
   <si>
     <t>TFG</t>
+  </si>
+  <si>
+    <t>'[0].demographics.active',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[0].contact_number',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[0].country',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[0].description',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[0].is_preferred',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[0].location.[0].geopoint.[0].latitude',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[0].location.[0].geopoint.[1].longitude',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[0].location.[1].meridian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[0].start_date',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[0].zip',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[1].contact_number',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[1].description',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[1].is_preferred',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[1].location',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[1].start_date',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[1].zip',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].contact_number.[0].fax_number',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].contact_number.[1].mobile_number.[0].area_code',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].contact_number.[1].mobile_number.[1].number',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].description',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].is_preferred',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].location',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].start_date',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].zip',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.awh_id',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.deceased.is_dead',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.org',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[1].demographics.active',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[1].demographics.address.[0].country',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[1].demographics.address.[0].start_date',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[1].demographics.address.[0].zip',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[1].demographics.awh_id',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[1].demographics.deceased.is_dead',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[1].demographics.deceased.year',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[2].demographics.active',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[2].demographics.address.[0].country',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[2].demographics.awh_id'</t>
+  </si>
+  <si>
+    <t>UT8</t>
+  </si>
+  <si>
+    <t>demographics.address.contact_number.landline_number.area_code</t>
+  </si>
+  <si>
+    <t>demographics.address.contact_number.landline_number.number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].contact_number.[2].landline_number.[0].area_code',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].contact_number.[2].landline_number.[1].number',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].contact_number.[3].landline_number.[0].area_code',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].contact_number.[3].landline_number.[1].number',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].contact_number.[4].landline_number.[0].area_code',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].contact_number.[4].landline_number.[1].number',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].contact_number.[5].landline_number.[0].area_code',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[0].demographics.address.[2].contact_number.[5].landline_number.[1].number',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '[1].demographics.address.[0].is_preferred',</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>_index</t>
+  </si>
+  <si>
+    <t>[3]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,8 +429,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +613,36 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -611,8 +806,39 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -968,368 +1194,839 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="63.1640625" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="2" max="2" width="78.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="7" customWidth="1"/>
+    <col min="4" max="7" width="34.1640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="33.1640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="32.83203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="b">
+      <c r="C4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="b">
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="b">
+      <c r="I4" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="b">
+      <c r="C7" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="C6" t="b">
+      <c r="D7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="b">
+      <c r="E7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E6" t="b">
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="I7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="E8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="C9" s="7">
         <v>10.02332</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
+      <c r="C10" s="7">
         <v>20.023319999999998</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B10">
+      <c r="C11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7">
+        <v>92000</v>
+      </c>
+      <c r="D13" s="7">
+        <v>12123</v>
+      </c>
+      <c r="E13" s="7">
+        <v>123258</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
+        <v>17158</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="11">
+        <v>9914293423</v>
+      </c>
+      <c r="D16" s="11">
+        <v>64752233</v>
+      </c>
+      <c r="E16" s="11">
+        <v>12345686</v>
+      </c>
+      <c r="F16" s="11">
+        <v>34223212</v>
+      </c>
+      <c r="G16" s="11">
+        <v>34322233</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7">
+        <v>63</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="7">
+        <v>9914293423</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12">
-        <v>92000</v>
-      </c>
-      <c r="C12">
-        <v>12123</v>
-      </c>
-      <c r="D12">
-        <v>123258</v>
-      </c>
-      <c r="E12">
-        <v>17158</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
+      <c r="D20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17">
+      <c r="B24" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17">
+      <c r="B25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17">
+      <c r="B26" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17">
+      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17">
+      <c r="B28" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17">
+      <c r="B29" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17">
+      <c r="B30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17">
+      <c r="B31" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17">
+      <c r="B32" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="17">
+      <c r="B33" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="17">
+      <c r="B34" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="17">
+      <c r="B35" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="17">
+      <c r="B36" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="17">
+      <c r="B37" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="17">
+      <c r="B38" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="17">
+      <c r="B39" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="17">
+      <c r="B40" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="17">
+      <c r="B41" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="17">
+      <c r="B42" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="17">
+      <c r="B43" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="17">
+      <c r="B44" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="17">
+      <c r="B45" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="17">
+      <c r="B46" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="17">
+      <c r="B47" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="17">
+      <c r="B48" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="17">
+      <c r="B49" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="17">
+      <c r="B50" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="17">
+      <c r="B51" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="17">
+      <c r="B52" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="17">
+      <c r="B53" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="17">
+      <c r="B54" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="17">
+      <c r="B55" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="17">
+      <c r="B56" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="17">
+      <c r="B57" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="17">
+      <c r="B58" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="17">
+      <c r="B59" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>9914293423</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
+    </row>
+    <row r="60" spans="2:2" ht="17">
+      <c r="B60" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="17">
+      <c r="B61" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="17">
+      <c r="B62" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="17">
+      <c r="B63" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="17">
+      <c r="B64" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="17">
+      <c r="B65" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="17">
+      <c r="B66" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="17">
+      <c r="B67" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="17">
+      <c r="B68" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="17">
+      <c r="B69" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>